--- a/docs/CareConnect-DiagnosticReport-1.xlsx
+++ b/docs/CareConnect-DiagnosticReport-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -730,6 +730,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.system</t>
@@ -4745,10 +4751,10 @@
         <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4820,7 +4826,7 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4828,7 +4834,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4854,23 +4860,23 @@
         <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -4912,7 +4918,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4930,10 +4936,10 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4941,7 +4947,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4967,13 +4973,13 @@
         <v>119</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5023,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5041,10 +5047,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5052,7 +5058,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5078,14 +5084,14 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5134,7 +5140,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5152,10 +5158,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5163,7 +5169,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5189,14 +5195,14 @@
         <v>119</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5245,7 +5251,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5263,10 +5269,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5297,19 +5303,19 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5358,7 +5364,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5376,10 +5382,10 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5387,7 +5393,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5413,16 +5419,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5471,7 +5477,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5489,10 +5495,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5500,11 +5506,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5526,10 +5532,10 @@
         <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5559,10 +5565,10 @@
         <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5580,7 +5586,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>53</v>
@@ -5595,21 +5601,21 @@
         <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5718,7 +5724,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5829,7 +5835,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5940,7 +5946,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>222</v>
@@ -6005,10 +6011,10 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>43</v>
@@ -6055,7 +6061,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6164,7 +6170,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6273,7 +6279,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>227</v>
@@ -6301,10 +6307,10 @@
         <v>228</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6376,7 +6382,7 @@
         <v>43</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6384,7 +6390,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6410,23 +6416,23 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>43</v>
@@ -6468,7 +6474,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6486,10 +6492,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6497,7 +6503,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6523,13 +6529,13 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6579,7 +6585,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6597,10 +6603,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6634,14 +6640,14 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6690,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6708,10 +6714,10 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
@@ -6719,7 +6725,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6745,14 +6751,14 @@
         <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6801,7 +6807,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6819,10 +6825,10 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>43</v>
@@ -6830,7 +6836,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6853,19 +6859,19 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6920,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6932,10 +6938,10 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>43</v>
@@ -6943,7 +6949,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6969,16 +6975,16 @@
         <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7027,7 +7033,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7045,10 +7051,10 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
@@ -7056,11 +7062,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7079,17 +7085,17 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7138,7 +7144,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7153,25 +7159,25 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7190,19 +7196,19 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7251,7 +7257,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7266,25 +7272,25 @@
         <v>43</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7303,19 +7309,19 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7364,7 +7370,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7379,25 +7385,25 @@
         <v>43</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7416,19 +7422,19 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7477,7 +7483,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7495,22 +7501,22 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7529,13 +7535,13 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7586,7 +7592,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7598,24 +7604,24 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7724,7 +7730,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7835,11 +7841,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7864,7 +7870,7 @@
         <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>102</v>
@@ -7917,7 +7923,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7946,7 +7952,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7972,10 +7978,10 @@
         <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8002,13 +8008,13 @@
         <v>43</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>43</v>
@@ -8026,7 +8032,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8041,13 +8047,13 @@
         <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -8055,7 +8061,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8078,19 +8084,19 @@
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8139,7 +8145,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>53</v>
@@ -8154,13 +8160,13 @@
         <v>43</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>43</v>
@@ -8168,7 +8174,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8191,19 +8197,19 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8252,7 +8258,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8270,10 +8276,10 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>43</v>
@@ -8281,11 +8287,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8304,17 +8310,17 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8363,7 +8369,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8381,10 +8387,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8415,16 +8421,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8474,7 +8480,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8495,7 +8501,7 @@
         <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8503,11 +8509,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8526,17 +8532,17 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8585,7 +8591,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8597,16 +8603,16 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8614,7 +8620,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8723,7 +8729,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8834,11 +8840,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8863,7 +8869,7 @@
         <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>102</v>
@@ -8916,7 +8922,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8971,16 +8977,16 @@
         <v>119</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -9029,7 +9035,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9050,7 +9056,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9058,7 +9064,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9081,13 +9087,13 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9138,7 +9144,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>53</v>
@@ -9159,7 +9165,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9167,11 +9173,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9193,14 +9199,14 @@
         <v>119</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9249,7 +9255,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9267,10 +9273,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9278,7 +9284,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9304,10 +9310,10 @@
         <v>141</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9337,10 +9343,10 @@
         <v>206</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -9358,7 +9364,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9376,10 +9382,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9387,7 +9393,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9496,7 +9502,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9607,7 +9613,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9718,7 +9724,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>222</v>
@@ -9783,10 +9789,10 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -9833,7 +9839,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9942,7 +9948,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10051,7 +10057,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>227</v>
@@ -10079,10 +10085,10 @@
         <v>228</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10154,7 +10160,7 @@
         <v>43</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10188,23 +10194,23 @@
         <v>66</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>43</v>
@@ -10246,7 +10252,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10264,10 +10270,10 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
@@ -10275,7 +10281,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10301,13 +10307,13 @@
         <v>119</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10357,7 +10363,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10375,10 +10381,10 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>43</v>
@@ -10386,7 +10392,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10412,14 +10418,14 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10468,7 +10474,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10486,10 +10492,10 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10497,7 +10503,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10523,14 +10529,14 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10579,7 +10585,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10597,10 +10603,10 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10608,7 +10614,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10631,19 +10637,19 @@
         <v>54</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -10692,7 +10698,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10710,10 +10716,10 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
@@ -10721,7 +10727,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10747,16 +10753,16 @@
         <v>119</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -10805,7 +10811,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10823,10 +10829,10 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>
@@ -10834,7 +10840,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10857,19 +10863,19 @@
         <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -10918,7 +10924,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10936,10 +10942,10 @@
         <v>43</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>43</v>

--- a/docs/CareConnect-DiagnosticReport-1.xlsx
+++ b/docs/CareConnect-DiagnosticReport-1.xlsx
@@ -1564,15 +1564,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="114.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1585,22 +1585,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="93.09765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/CareConnect-DiagnosticReport-1.xlsx
+++ b/docs/CareConnect-DiagnosticReport-1.xlsx
@@ -1564,15 +1564,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="114.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1585,22 +1585,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.09765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
